--- a/1uT_u_v1_1_BOM.xlsx
+++ b/1uT_u_v1_1_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Documents/eagle/projects/1uT_u/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90DB7C49-BB36-1840-A32F-C48DCF966633}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F794977-31A9-3741-B1CD-4667987F3214}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{63E31F44-6353-3E4B-B4DD-041AD732F37F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_1uT_u4" localSheetId="0">Sheet1!$A$1:$AB$42</definedName>
+    <definedName name="_1uT_u4" localSheetId="0">Sheet1!$A$1:$AB$43</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -27,6 +27,82 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{8E2FEF6C-980C-BD49-903C-D54C412479AA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>R7 used for Bicolour led brightness</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(DAC Output)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{35ED885A-5B04-3D4D-93FD-006FE521786D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>R1,R2,R3,R4,R5 used for leds brightness</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, Keep resistors value High as posibole and match the value to your leds types.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>100k for super bright leds with flat heads for other leds it's should be lower value</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="1uT_u4" type="6" refreshedVersion="6" background="1" saveData="1">
@@ -66,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="226">
   <si>
     <t>Qty</t>
   </si>
@@ -170,9 +246,6 @@
     <t>R0603</t>
   </si>
   <si>
-    <t>R7, R9, R12, R15, R17, R24, R27</t>
-  </si>
-  <si>
     <t>RESISTOR, European symbol</t>
   </si>
   <si>
@@ -188,9 +261,6 @@
     <t>100k</t>
   </si>
   <si>
-    <t>R1, R2, R3, R4, R5, R35, R38, R44, R47, R50, R53</t>
-  </si>
-  <si>
     <t>100n</t>
   </si>
   <si>
@@ -479,9 +549,6 @@
     <t>MIC803-46D2VM3TR</t>
   </si>
   <si>
-    <t>SOT95P230X110-3N</t>
-  </si>
-  <si>
     <t>IC4</t>
   </si>
   <si>
@@ -663,13 +730,137 @@
   </si>
   <si>
     <t>Tact Switch</t>
+  </si>
+  <si>
+    <t>998-MIC803-26D2VM3TR</t>
+  </si>
+  <si>
+    <t>77-VJ0603A561GXACBC</t>
+  </si>
+  <si>
+    <t>C-EUC0603 C0G/NP0</t>
+  </si>
+  <si>
+    <t>80-C0603C102K5REC</t>
+  </si>
+  <si>
+    <t>80-C0603C332K5REC</t>
+  </si>
+  <si>
+    <t>80-C0603C104K3NAUTO</t>
+  </si>
+  <si>
+    <t>810-CGA3E3X7R1H474KB</t>
+  </si>
+  <si>
+    <t>603-CC603KRX5R8BB105</t>
+  </si>
+  <si>
+    <t>963-TMK316BJ106ML-T</t>
+  </si>
+  <si>
+    <t>667-EEE-FK1H100SR</t>
+  </si>
+  <si>
+    <t>667-EEE-FK1H220SR</t>
+  </si>
+  <si>
+    <t>621-1N5819HW-F</t>
+  </si>
+  <si>
+    <t>926-LM4040DIM350NOPB</t>
+  </si>
+  <si>
+    <t>595-TL072CDR</t>
+  </si>
+  <si>
+    <t>595-TL074CDR</t>
+  </si>
+  <si>
+    <t>579-MCP6002T-I/SN</t>
+  </si>
+  <si>
+    <t>511-LD1117S50</t>
+  </si>
+  <si>
+    <t>863-MMBT3904LT1G</t>
+  </si>
+  <si>
+    <t>584-ADP150AUJZ-3.3R7</t>
+  </si>
+  <si>
+    <t>612-TL1105SP-250</t>
+  </si>
+  <si>
+    <t>Tact Switch caps</t>
+  </si>
+  <si>
+    <t>12-1R-BK</t>
+  </si>
+  <si>
+    <t>858-EN11-HSM1BF20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osh Park </t>
+  </si>
+  <si>
+    <t>See GitHub link --&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Thonk</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>R1, R2, R3, R4, R5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, R35, R38, R44, R47, R50, R53</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>R7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, R9, R12, R15, R17, R24, R27</t>
+    </r>
+  </si>
+  <si>
+    <t>SEE DESCRIPOTION --&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Teensy Supervisor, You need this only if your case used Linear PSU, Use TH resistor leg to connect RESET hole on 1uT_u PCB to RESET pad on the teensy. In this case it's better to solder the teensy directly to the board.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -685,8 +876,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -696,6 +912,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -727,9 +949,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1048,17 +1271,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9727F280-B1A9-804C-A8A9-25D31F713463}">
-  <dimension ref="A1:AA47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9727F280-B1A9-804C-A8A9-25D31F713463}">
+  <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.33203125" customWidth="1"/>
@@ -1086,7 +1309,7 @@
     <col min="27" max="27" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1166,12 +1389,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
@@ -1180,24 +1403,24 @@
         <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -1206,19 +1429,19 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" t="s">
         <v>35</v>
       </c>
-      <c r="Z3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>7</v>
       </c>
@@ -1232,24 +1455,24 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" t="s">
+      <c r="Z4" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -1258,24 +1481,24 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" t="s">
         <v>35</v>
       </c>
-      <c r="Z5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -1284,24 +1507,24 @@
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z6" t="s">
         <v>35</v>
       </c>
-      <c r="Z6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -1310,24 +1533,24 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" t="s">
         <v>35</v>
       </c>
-      <c r="Z7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -1336,24 +1559,24 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z8" t="s">
         <v>35</v>
       </c>
-      <c r="Z8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -1362,24 +1585,24 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z9" t="s">
         <v>35</v>
       </c>
-      <c r="Z9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -1388,24 +1611,24 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z10" t="s">
         <v>35</v>
       </c>
-      <c r="Z10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -1414,24 +1637,24 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z11" t="s">
         <v>35</v>
       </c>
-      <c r="Z11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -1440,24 +1663,24 @@
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z12" t="s">
         <v>35</v>
       </c>
-      <c r="Z12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -1466,24 +1689,24 @@
         <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z13" t="s">
         <v>35</v>
       </c>
-      <c r="Z13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -1492,24 +1715,24 @@
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z14" t="s">
         <v>35</v>
       </c>
-      <c r="Z14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -1518,24 +1741,24 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z15" t="s">
         <v>35</v>
       </c>
-      <c r="Z15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:27" ht="18" customHeight="1">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -1544,24 +1767,24 @@
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z16" t="s">
         <v>35</v>
       </c>
-      <c r="Z16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:27" ht="17" thickBot="1">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -1570,486 +1793,540 @@
         <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z17" t="s">
         <v>35</v>
       </c>
-      <c r="Z17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:27" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:27" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
+    <row r="19" spans="1:27" ht="17" thickTop="1">
       <c r="A19">
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s">
         <v>43</v>
       </c>
-      <c r="F19" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s">
         <v>43</v>
       </c>
-      <c r="F20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s">
         <v>43</v>
       </c>
-      <c r="F21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>14</v>
       </c>
       <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" t="s">
         <v>42</v>
       </c>
-      <c r="D22" t="s">
+      <c r="G22" t="s">
         <v>43</v>
       </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" t="s">
         <v>43</v>
       </c>
-      <c r="F23" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" t="s">
         <v>43</v>
       </c>
-      <c r="F24" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
         <v>48</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
       </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" t="s">
-        <v>51</v>
-      </c>
       <c r="G25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
+        <v>205</v>
+      </c>
+      <c r="F26" t="s">
         <v>52</v>
       </c>
-      <c r="D26" t="s">
+      <c r="G26" t="s">
         <v>53</v>
       </c>
-      <c r="F26" t="s">
+      <c r="Z26" t="s">
         <v>54</v>
       </c>
-      <c r="G26" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:27" ht="17" thickBot="1">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
         <v>79</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" t="s">
         <v>80</v>
       </c>
-      <c r="D27" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" t="s">
-        <v>82</v>
-      </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:27" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
+    <row r="29" spans="1:27" ht="17" thickTop="1">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
         <v>63</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" t="s">
         <v>64</v>
       </c>
-      <c r="D29" t="s">
+      <c r="G29" t="s">
         <v>65</v>
       </c>
-      <c r="F29" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" t="s">
         <v>58</v>
       </c>
-      <c r="D30" t="s">
+      <c r="G30" t="s">
         <v>59</v>
       </c>
-      <c r="E30" t="s">
-        <v>187</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="AA30" t="s">
         <v>60</v>
       </c>
-      <c r="G30" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" t="s">
         <v>125</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" t="s">
         <v>126</v>
       </c>
-      <c r="D31" t="s">
+      <c r="G31" t="s">
         <v>127</v>
       </c>
-      <c r="F31" t="s">
+      <c r="S31" t="s">
         <v>128</v>
-      </c>
-      <c r="G31" t="s">
-        <v>129</v>
-      </c>
-      <c r="S31" t="s">
-        <v>130</v>
       </c>
       <c r="T31">
         <v>1575212</v>
       </c>
       <c r="U31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" t="s">
+        <v>209</v>
+      </c>
+      <c r="F32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" t="s">
         <v>158</v>
       </c>
-      <c r="C32" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" t="s">
-        <v>159</v>
-      </c>
-      <c r="F32" t="s">
-        <v>160</v>
-      </c>
-      <c r="G32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+      <c r="E33" t="s">
+        <v>210</v>
       </c>
       <c r="F33" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G33" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" t="s">
+        <v>211</v>
+      </c>
+      <c r="F34" t="s">
         <v>132</v>
       </c>
-      <c r="C34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="G34" t="s">
         <v>133</v>
       </c>
-      <c r="F34" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" t="s">
         <v>117</v>
       </c>
-      <c r="C35" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="G35" t="s">
         <v>118</v>
       </c>
-      <c r="F35" t="s">
+      <c r="L35" t="s">
+        <v>109</v>
+      </c>
+      <c r="M35" t="s">
         <v>119</v>
       </c>
-      <c r="G35" t="s">
+      <c r="Q35" t="s">
         <v>120</v>
       </c>
-      <c r="L35" t="s">
-        <v>111</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="R35" t="s">
+        <v>115</v>
+      </c>
+      <c r="V35" t="s">
         <v>121</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="W35" t="s">
         <v>122</v>
       </c>
-      <c r="R35" t="s">
-        <v>117</v>
-      </c>
-      <c r="V35" t="s">
-        <v>123</v>
-      </c>
-      <c r="W35" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" t="s">
         <v>142</v>
       </c>
-      <c r="C36" t="s">
+      <c r="G36" t="s">
         <v>143</v>
       </c>
-      <c r="D36" t="s">
-        <v>144</v>
-      </c>
-      <c r="F36" t="s">
-        <v>145</v>
-      </c>
-      <c r="G36" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A37">
+    </row>
+    <row r="37" spans="1:25" s="2" customFormat="1">
+      <c r="A37" s="2">
         <v>1</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C37" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="N37" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F37" t="s">
+      <c r="O37" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G37" t="s">
-        <v>139</v>
-      </c>
-      <c r="J37" t="s">
-        <v>136</v>
-      </c>
-      <c r="M37" t="s">
-        <v>139</v>
-      </c>
-      <c r="N37" t="s">
-        <v>140</v>
-      </c>
-      <c r="O37" t="s">
-        <v>141</v>
-      </c>
-      <c r="P37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P37" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="17" thickBot="1">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" t="s">
         <v>107</v>
       </c>
-      <c r="C38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="G38" t="s">
         <v>108</v>
       </c>
-      <c r="F38" t="s">
+      <c r="L38" t="s">
         <v>109</v>
       </c>
-      <c r="G38" t="s">
+      <c r="M38" t="s">
         <v>110</v>
       </c>
-      <c r="L38" t="s">
+      <c r="Q38" t="s">
         <v>111</v>
       </c>
-      <c r="M38" t="s">
+      <c r="R38" t="s">
         <v>112</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="V38" t="s">
         <v>113</v>
       </c>
-      <c r="R38" t="s">
+      <c r="W38" t="s">
         <v>114</v>
       </c>
-      <c r="V38" t="s">
-        <v>115</v>
-      </c>
-      <c r="W38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:25" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
+    <row r="40" spans="1:25" ht="17" thickTop="1">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s">
         <v>28</v>
       </c>
+      <c r="E40" t="s">
+        <v>215</v>
+      </c>
       <c r="F40" t="s">
         <v>29</v>
       </c>
@@ -2057,139 +2334,139 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" t="s">
+        <v>216</v>
+      </c>
+      <c r="E41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" t="s">
+        <v>218</v>
+      </c>
+      <c r="F42" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" t="s">
         <v>148</v>
       </c>
-      <c r="C41" t="s">
+      <c r="H42">
+        <v>70407906</v>
+      </c>
+      <c r="I42" t="s">
+        <v>149</v>
+      </c>
+      <c r="J42" t="s">
+        <v>150</v>
+      </c>
+      <c r="K42" t="s">
+        <v>151</v>
+      </c>
+      <c r="M42" t="s">
         <v>148</v>
       </c>
-      <c r="D41" t="s">
-        <v>149</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="N42" t="s">
+        <v>137</v>
+      </c>
+      <c r="O42" t="s">
+        <v>152</v>
+      </c>
+      <c r="P42" t="s">
         <v>150</v>
       </c>
-      <c r="G41" t="s">
+      <c r="X42">
+        <v>1674651</v>
+      </c>
+      <c r="Y42" t="s">
         <v>151</v>
       </c>
-      <c r="H41">
-        <v>70407906</v>
-      </c>
-      <c r="I41" t="s">
-        <v>152</v>
-      </c>
-      <c r="J41" t="s">
-        <v>153</v>
-      </c>
-      <c r="K41" t="s">
-        <v>154</v>
-      </c>
-      <c r="M41" t="s">
-        <v>151</v>
-      </c>
-      <c r="N41" t="s">
-        <v>140</v>
-      </c>
-      <c r="O41" t="s">
-        <v>155</v>
-      </c>
-      <c r="P41" t="s">
-        <v>153</v>
-      </c>
-      <c r="X41">
-        <v>1674651</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" t="s">
-        <v>157</v>
-      </c>
-      <c r="F42" t="s">
-        <v>157</v>
-      </c>
-      <c r="G42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="D43" t="s">
-        <v>188</v>
+        <v>154</v>
+      </c>
+      <c r="E43" t="s">
+        <v>219</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="G43" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="D44" t="s">
-        <v>156</v>
+        <v>185</v>
+      </c>
+      <c r="E44" t="s">
+        <v>220</v>
       </c>
       <c r="F44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>192</v>
-      </c>
-      <c r="C45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>193</v>
       </c>
       <c r="C46" t="s">
         <v>26</v>
@@ -2197,40 +2474,85 @@
       <c r="D46" t="s">
         <v>26</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" t="s">
+        <v>188</v>
+      </c>
+      <c r="G47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
         <v>165</v>
       </c>
-      <c r="F46" t="s">
-        <v>191</v>
-      </c>
-      <c r="G46" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>12</v>
-      </c>
-      <c r="B47" t="s">
-        <v>168</v>
-      </c>
-      <c r="C47" t="s">
-        <v>169</v>
-      </c>
-      <c r="D47" t="s">
-        <v>170</v>
-      </c>
-      <c r="F47" t="s">
-        <v>147</v>
+      <c r="C48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" t="s">
+        <v>221</v>
+      </c>
+      <c r="F48" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A22:AA42">
+  <sortState ref="A22:AA43">
     <sortCondition ref="D1"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="E30" r:id="rId1" xr:uid="{F986EA41-D570-8142-84FD-49F09A1DF38F}"/>
+    <hyperlink ref="E37" r:id="rId2" display="https://www.mouser.co.il/ProductDetail/998-MIC803-26D2VM3TR" xr:uid="{76019184-A3BB-1D48-8AD8-F160ABF136FE}"/>
+    <hyperlink ref="E20" r:id="rId3" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/KEMET/C0603C102K5RECTU?qs=sGAEpiMZZMs0AnBnWHyRQN7%2fAA2D2lPPm5eXXnd22BtGsvJs7lfYTQ%3d%3d" xr:uid="{BF115D5B-A1A2-A14C-AEC0-CEA2537C8154}"/>
+    <hyperlink ref="E21" r:id="rId4" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/KEMET/C0603C332K5RECTU?qs=sGAEpiMZZMs0AnBnWHyRQN7%2fAA2D2lPPH69uUm5dS5egDVJzfiKzNA%3d%3d" xr:uid="{B31D4D16-5C9D-7F42-8698-AF80EF08BEE5}"/>
+    <hyperlink ref="E22" r:id="rId5" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/KEMET/C0603C104K3NACAUTO?qs=sGAEpiMZZMs0AnBnWHyRQN7%2fAA2D2lPPcN7f2UDUgHKyFvHfUXZ1hw%3d%3d" xr:uid="{BA864586-4268-7F4C-B3C0-7C6FA652C3E6}"/>
+    <hyperlink ref="E23" r:id="rId6" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/TDK/CGA3E3X7R1H474K080AB?qs=sGAEpiMZZMs0AnBnWHyRQFv7x1xn%252bYFdI3ebG%252bgQDzEQIVV5hs4lYw%3d%3d" xr:uid="{93E09219-6EEE-5844-81FB-B97A948C3E6C}"/>
+    <hyperlink ref="E24" r:id="rId7" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Yageo/CC0603KRX5R8BB105?qs=sGAEpiMZZMs0AnBnWHyRQIOKs%2fDjbJvGM2Qk4x9TyVw%3d" xr:uid="{A1E55E61-20AB-CC44-93B1-4D31DC575E08}"/>
+    <hyperlink ref="E25" r:id="rId8" display="https://www.mouser.co.il/ProductDetail/963-TMK316BJ106ML-T" xr:uid="{CC4A3F53-571C-044B-B0BF-7CB715EFE193}"/>
+    <hyperlink ref="E26" r:id="rId9" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Panasonic/EEE-FK1H100SR?qs=sGAEpiMZZMtZ1n0r9vR22cpFQt4dfSbqlgP0J7L1P8PoEcpU63uHJg%3d%3d" xr:uid="{A515C98F-F018-1E41-AAF5-772421728CDD}"/>
+    <hyperlink ref="E27" r:id="rId10" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Panasonic/EEE-FK1H220SR?qs=sGAEpiMZZMtZ1n0r9vR22cpFQt4dfSbq7nKccDuQ3qldDMUlrKwzfQ%3d%3d" xr:uid="{78021549-575E-0C43-B558-5F65A81A4D23}"/>
+    <hyperlink ref="E29" r:id="rId11" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Diodes-Incorporated/1N5819HW-7-F?qs=sGAEpiMZZMtQ8nqTKtFS%2fB%252byFmaLvEBChMEBFjGBzc4%3d" xr:uid="{AE97DF62-51F0-644D-A720-B16BCAB403FA}"/>
+    <hyperlink ref="E31" r:id="rId12" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Texas-Instruments/LM4040DIM3-50-NOPB?qs=sGAEpiMZZMuBck1X%252b7j9fFxOFMTVQaIHY0uHQcT5O5c%3d" xr:uid="{30573581-9CEF-3E4F-A751-55831A599B50}"/>
+    <hyperlink ref="E32" r:id="rId13" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Texas-Instruments/TL072CDR?qs=sGAEpiMZZMtYFXwiBRPs0zzUsTTH4TUq" xr:uid="{77052037-1437-414F-9BB1-00AA12815334}"/>
+    <hyperlink ref="E33" r:id="rId14" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Texas-Instruments/TL074CDR?qs=sGAEpiMZZMtCHixnSjNA6NDQA1eMYwPy8CYCuPHuybs%3d" xr:uid="{9CC492ED-351A-9447-A3B0-89E8EF3585A7}"/>
+    <hyperlink ref="E34" r:id="rId15" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Microchip-Technology/MCP6002T-I-SN?qs=sGAEpiMZZMsUzhEcHltCuY6YBL510a4u" xr:uid="{2A3464B9-0E2E-2A45-A961-03A4A61D1103}"/>
+    <hyperlink ref="E36" r:id="rId16" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/ON-Semiconductor/MMBT3904LT1G?qs=sGAEpiMZZMshyDBzk1%2fWi%2fPUgtclNldlheHc%252bMVjFj0%3d" xr:uid="{0E138471-76FB-8F4D-8B8F-FDA52E22B360}"/>
+    <hyperlink ref="E40" r:id="rId17" display="https://www.mouser.co.il/ProductDetail/612-TL1105SP-250" xr:uid="{08457C3F-BB74-F144-933E-A7BCD951CC00}"/>
+    <hyperlink ref="E41" r:id="rId18" display="https://www.mouser.co.il/ProductDetail/612-1R-BK" xr:uid="{9CA33551-492F-C145-B7AB-71C5AC55FF4F}"/>
+    <hyperlink ref="E42" r:id="rId19" display="https://www.mouser.co.il/ProductDetail/858-EN11-HSM1BF20" xr:uid="{F592FEF2-765C-7B40-8459-847ADFD20608}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId20"/>
 </worksheet>
 </file>
--- a/1uT_u_v1_1_BOM.xlsx
+++ b/1uT_u_v1_1_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Documents/eagle/projects/1uT_u/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F794977-31A9-3741-B1CD-4667987F3214}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DA5867-2F7E-4A43-A223-6CE57BCC2D13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{63E31F44-6353-3E4B-B4DD-041AD732F37F}"/>
   </bookViews>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="228">
   <si>
     <t>Qty</t>
   </si>
@@ -854,6 +854,12 @@
   </si>
   <si>
     <t>Teensy Supervisor, You need this only if your case used Linear PSU, Use TH resistor leg to connect RESET hole on 1uT_u PCB to RESET pad on the teensy. In this case it's better to solder the teensy directly to the board.</t>
+  </si>
+  <si>
+    <t>1X40 Pin Header</t>
+  </si>
+  <si>
+    <t>Theensy / OLED connector</t>
   </si>
 </sst>
 </file>
@@ -1272,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9727F280-B1A9-804C-A8A9-25D31F713463}">
-  <dimension ref="A1:AA48"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2449,44 +2455,35 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="C45" t="s">
-        <v>164</v>
-      </c>
-      <c r="D45" t="s">
-        <v>153</v>
-      </c>
-      <c r="F45" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="F46" t="s">
-        <v>187</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C47" t="s">
         <v>26</v>
@@ -2494,36 +2491,56 @@
       <c r="D47" t="s">
         <v>26</v>
       </c>
-      <c r="E47" t="s">
-        <v>162</v>
-      </c>
       <c r="F47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G47" t="s">
-        <v>191</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" t="s">
+        <v>188</v>
+      </c>
+      <c r="G48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
         <v>12</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>165</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>166</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>167</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>221</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F49" t="s">
         <v>144</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G49" t="s">
         <v>166</v>
       </c>
     </row>

--- a/1uT_u_v1_1_BOM.xlsx
+++ b/1uT_u_v1_1_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Documents/eagle/projects/1uT_u/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DA5867-2F7E-4A43-A223-6CE57BCC2D13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6637A165-2BD1-8443-8DD7-6564A8F1F14E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{63E31F44-6353-3E4B-B4DD-041AD732F37F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_1uT_u4" localSheetId="0">Sheet1!$A$1:$AB$43</definedName>
+    <definedName name="_1uT_u4" localSheetId="0">Sheet1!$A$1:$AB$44</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -95,7 +95,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>100k for super bright leds with flat heads for other leds it's should be lower value</t>
+          <t>100k for super bright leds with flat heads (See link to eBay below) for other leds it's should be lower value</t>
         </r>
       </text>
     </comment>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="232">
   <si>
     <t>Qty</t>
   </si>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>LED3MM</t>
-  </si>
-  <si>
-    <t>LED</t>
   </si>
   <si>
     <t>TACTILE-PTH</t>
@@ -860,6 +857,38 @@
   </si>
   <si>
     <t>Theensy / OLED connector</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/100pcs-5mm-Red-Yellow-Blue-Green-White-Flat-Top-LED-Wide-Angle-Leds-Resistors-/221503673632?hash=item3392a5d520</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>For more colours:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://www.mouser.com/Search/Refine.aspx?FS=TRUE&amp;N=0+4294759258+20706637+4292700930+4294735050+4292590482+4292590450+4292906361</t>
+    </r>
+  </si>
+  <si>
+    <t>Knobs</t>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/sifam-soft-touch-encoder-knobs/</t>
+  </si>
+  <si>
+    <t>Sifam soft touch Encoder Knob</t>
   </si>
 </sst>
 </file>
@@ -1278,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9727F280-B1A9-804C-A8A9-25D31F713463}">
-  <dimension ref="A1:AA49"/>
+  <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1400,25 +1429,25 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="Z2" t="s">
         <v>34</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -1426,25 +1455,25 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" t="s">
         <v>99</v>
       </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="Z3" t="s">
         <v>34</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -1452,25 +1481,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="Z4" t="s">
         <v>34</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -1478,25 +1507,25 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" t="s">
         <v>67</v>
       </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="Z5" t="s">
         <v>34</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -1504,25 +1533,25 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" t="s">
         <v>69</v>
       </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="Z6" t="s">
         <v>34</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1530,25 +1559,25 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" t="s">
         <v>81</v>
       </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="Z7" t="s">
         <v>34</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1556,25 +1585,25 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" t="s">
         <v>89</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="Z8" t="s">
         <v>34</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1582,25 +1611,25 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" t="s">
         <v>91</v>
       </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="Z9" t="s">
         <v>34</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1608,25 +1637,25 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="Z10" t="s">
         <v>34</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1634,25 +1663,25 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" t="s">
         <v>101</v>
       </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="Z11" t="s">
         <v>34</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1660,25 +1689,25 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
         <v>33</v>
       </c>
-      <c r="E12" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="Z12" t="s">
         <v>34</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -1686,25 +1715,25 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" t="s">
         <v>75</v>
       </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="Z13" t="s">
         <v>34</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -1712,25 +1741,25 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" t="s">
         <v>87</v>
       </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="E14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="Z14" t="s">
         <v>34</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -1738,25 +1767,25 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" t="s">
         <v>95</v>
       </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="G15" t="s">
         <v>33</v>
       </c>
-      <c r="E15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="Z15" t="s">
         <v>34</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="18" customHeight="1">
@@ -1764,25 +1793,25 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="G16" t="s">
         <v>33</v>
       </c>
-      <c r="E16" t="s">
-        <v>182</v>
-      </c>
-      <c r="F16" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="Z16" t="s">
         <v>34</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="17" thickBot="1">
@@ -1790,25 +1819,25 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" t="s">
+        <v>221</v>
+      </c>
+      <c r="G17" t="s">
         <v>33</v>
       </c>
-      <c r="E17" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" t="s">
-        <v>222</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="Z17" t="s">
         <v>34</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:27" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
@@ -1817,22 +1846,22 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" t="s">
         <v>85</v>
       </c>
-      <c r="C19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F19" t="s">
-        <v>86</v>
-      </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -1840,22 +1869,22 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" t="s">
-        <v>199</v>
-      </c>
-      <c r="F20" t="s">
-        <v>72</v>
-      </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -1863,22 +1892,22 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" t="s">
         <v>83</v>
       </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" t="s">
-        <v>200</v>
-      </c>
-      <c r="F21" t="s">
-        <v>84</v>
-      </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -1886,22 +1915,22 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>40</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
       </c>
-      <c r="E22" t="s">
-        <v>201</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>42</v>
-      </c>
-      <c r="G22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -1909,22 +1938,22 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" t="s">
         <v>93</v>
       </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" t="s">
-        <v>202</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
-      </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -1932,22 +1961,22 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>202</v>
+      </c>
+      <c r="F24" t="s">
         <v>73</v>
       </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" t="s">
-        <v>203</v>
-      </c>
-      <c r="F24" t="s">
-        <v>74</v>
-      </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -1955,22 +1984,22 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
         <v>46</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>47</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" t="s">
         <v>48</v>
       </c>
-      <c r="E25" t="s">
-        <v>204</v>
-      </c>
-      <c r="F25" t="s">
-        <v>49</v>
-      </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -1978,25 +2007,25 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
         <v>50</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
       </c>
-      <c r="E26" t="s">
-        <v>205</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>52</v>
       </c>
-      <c r="G26" t="s">
+      <c r="Z26" t="s">
         <v>53</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="17" thickBot="1">
@@ -2004,25 +2033,25 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
         <v>77</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>78</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>205</v>
+      </c>
+      <c r="F27" t="s">
         <v>79</v>
       </c>
-      <c r="E27" t="s">
-        <v>206</v>
-      </c>
-      <c r="F27" t="s">
-        <v>80</v>
-      </c>
       <c r="G27" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z27" t="s">
         <v>53</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:27" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
@@ -2031,22 +2060,22 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
         <v>61</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>62</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>206</v>
+      </c>
+      <c r="F29" t="s">
         <v>63</v>
       </c>
-      <c r="E29" t="s">
-        <v>207</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>64</v>
-      </c>
-      <c r="G29" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -2054,25 +2083,25 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
         <v>55</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>56</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
       </c>
-      <c r="E30" t="s">
-        <v>184</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>58</v>
       </c>
-      <c r="G30" t="s">
+      <c r="AA30" t="s">
         <v>59</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -2080,31 +2109,31 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" t="s">
         <v>123</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>124</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" t="s">
         <v>125</v>
       </c>
-      <c r="E31" t="s">
-        <v>208</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>126</v>
       </c>
-      <c r="G31" t="s">
+      <c r="S31" t="s">
         <v>127</v>
-      </c>
-      <c r="S31" t="s">
-        <v>128</v>
       </c>
       <c r="T31">
         <v>1575212</v>
       </c>
       <c r="U31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -2112,22 +2141,22 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" t="s">
         <v>155</v>
       </c>
-      <c r="C32" t="s">
-        <v>155</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" t="s">
         <v>156</v>
       </c>
-      <c r="E32" t="s">
-        <v>209</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>157</v>
-      </c>
-      <c r="G32" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -2135,22 +2164,22 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" t="s">
         <v>159</v>
       </c>
-      <c r="C33" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>209</v>
+      </c>
+      <c r="F33" t="s">
         <v>160</v>
       </c>
-      <c r="E33" t="s">
-        <v>210</v>
-      </c>
-      <c r="F33" t="s">
-        <v>161</v>
-      </c>
       <c r="G33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -2158,22 +2187,22 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
         <v>130</v>
       </c>
-      <c r="C34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>210</v>
+      </c>
+      <c r="F34" t="s">
         <v>131</v>
       </c>
-      <c r="E34" t="s">
-        <v>211</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>132</v>
-      </c>
-      <c r="G34" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -2181,40 +2210,40 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
         <v>115</v>
       </c>
-      <c r="C35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>211</v>
+      </c>
+      <c r="F35" t="s">
         <v>116</v>
       </c>
-      <c r="E35" t="s">
-        <v>212</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>117</v>
       </c>
-      <c r="G35" t="s">
+      <c r="L35" t="s">
+        <v>108</v>
+      </c>
+      <c r="M35" t="s">
         <v>118</v>
       </c>
-      <c r="L35" t="s">
-        <v>109</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="Q35" t="s">
         <v>119</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
+        <v>114</v>
+      </c>
+      <c r="V35" t="s">
         <v>120</v>
       </c>
-      <c r="R35" t="s">
-        <v>115</v>
-      </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>121</v>
-      </c>
-      <c r="W35" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -2222,22 +2251,22 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s">
         <v>139</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>140</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>212</v>
+      </c>
+      <c r="F36" t="s">
         <v>141</v>
       </c>
-      <c r="E36" t="s">
-        <v>213</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>142</v>
-      </c>
-      <c r="G36" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:25" s="2" customFormat="1">
@@ -2245,34 +2274,34 @@
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="M37" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="O37" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="O37" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="P37" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="17" thickBot="1">
@@ -2280,40 +2309,40 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
         <v>105</v>
       </c>
-      <c r="C38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" t="s">
         <v>106</v>
       </c>
-      <c r="E38" t="s">
-        <v>214</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>107</v>
       </c>
-      <c r="G38" t="s">
+      <c r="L38" t="s">
         <v>108</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>109</v>
       </c>
-      <c r="M38" t="s">
+      <c r="Q38" t="s">
         <v>110</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>111</v>
       </c>
-      <c r="R38" t="s">
+      <c r="V38" t="s">
         <v>112</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>113</v>
-      </c>
-      <c r="W38" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:25" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
@@ -2322,22 +2351,22 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" t="s">
         <v>28</v>
       </c>
-      <c r="E40" t="s">
-        <v>215</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>29</v>
-      </c>
-      <c r="G40" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -2345,10 +2374,16 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
+        <v>215</v>
+      </c>
+      <c r="E41" t="s">
         <v>216</v>
       </c>
-      <c r="E41" t="s">
-        <v>217</v>
+      <c r="F41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -2356,75 +2391,66 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" t="s">
         <v>145</v>
       </c>
-      <c r="C42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>217</v>
+      </c>
+      <c r="F42" t="s">
         <v>146</v>
       </c>
-      <c r="E42" t="s">
-        <v>218</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>147</v>
-      </c>
-      <c r="G42" t="s">
-        <v>148</v>
       </c>
       <c r="H42">
         <v>70407906</v>
       </c>
       <c r="I42" t="s">
+        <v>148</v>
+      </c>
+      <c r="J42" t="s">
         <v>149</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>150</v>
       </c>
-      <c r="K42" t="s">
+      <c r="M42" t="s">
+        <v>147</v>
+      </c>
+      <c r="N42" t="s">
+        <v>136</v>
+      </c>
+      <c r="O42" t="s">
         <v>151</v>
       </c>
-      <c r="M42" t="s">
-        <v>148</v>
-      </c>
-      <c r="N42" t="s">
-        <v>137</v>
-      </c>
-      <c r="O42" t="s">
-        <v>152</v>
-      </c>
       <c r="P42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X42">
         <v>1674651</v>
       </c>
       <c r="Y42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
-      </c>
-      <c r="D43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E43" t="s">
-        <v>219</v>
-      </c>
-      <c r="F43" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="G43" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -2432,22 +2458,22 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E44" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="G44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -2455,10 +2481,22 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>226</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>227</v>
+        <v>184</v>
+      </c>
+      <c r="D45" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" t="s">
+        <v>219</v>
+      </c>
+      <c r="F45" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -2466,44 +2504,35 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" t="s">
-        <v>153</v>
-      </c>
-      <c r="F46" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="F47" t="s">
-        <v>187</v>
-      </c>
-      <c r="G47" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
         <v>26</v>
@@ -2511,41 +2540,61 @@
       <c r="D48" t="s">
         <v>26</v>
       </c>
-      <c r="E48" t="s">
-        <v>162</v>
-      </c>
       <c r="F48" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G48" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49" t="s">
+        <v>187</v>
+      </c>
+      <c r="G49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
         <v>12</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" t="s">
         <v>165</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D50" t="s">
         <v>166</v>
       </c>
-      <c r="D49" t="s">
-        <v>167</v>
-      </c>
-      <c r="E49" t="s">
-        <v>221</v>
-      </c>
-      <c r="F49" t="s">
-        <v>144</v>
-      </c>
-      <c r="G49" t="s">
-        <v>166</v>
+      <c r="E50" t="s">
+        <v>220</v>
+      </c>
+      <c r="F50" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A22:AA43">
+  <sortState ref="A22:AA44">
     <sortCondition ref="D1"/>
   </sortState>
   <hyperlinks>

--- a/1uT_u_v1_1_BOM.xlsx
+++ b/1uT_u_v1_1_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Documents/eagle/projects/1uT_u/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6637A165-2BD1-8443-8DD7-6564A8F1F14E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AFA1F0-F6E0-6346-9AC4-48DF4F3F090B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{63E31F44-6353-3E4B-B4DD-041AD732F37F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{63E31F44-6353-3E4B-B4DD-041AD732F37F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="237">
   <si>
     <t>Qty</t>
   </si>
@@ -889,6 +889,21 @@
   </si>
   <si>
     <t>Sifam soft touch Encoder Knob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3M/6MM Nylon standoffs </t>
+  </si>
+  <si>
+    <t>For screen mounting</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/100pcs-lot-M3-5-6-8-10-12-15-18-20-25-black-Nylon-standoff-3mm/32874390664.html?spm=a2g0s.9042311.0.0.27424c4dBrQZyC</t>
+  </si>
+  <si>
+    <t>3M Nylon screws</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/Black-100Pcs-Lot-Plastic-Nylon-M3-Hex-Column-Standoff-Spacer-Phillips-Screw-New/32747099724.html?spm=a2g0s.9042311.0.0.27424c4dBrQZyC</t>
   </si>
 </sst>
 </file>
@@ -1307,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9727F280-B1A9-804C-A8A9-25D31F713463}">
-  <dimension ref="A1:AA50"/>
+  <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="D27" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2593,6 +2608,34 @@
         <v>165</v>
       </c>
     </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>232</v>
+      </c>
+      <c r="C51" t="s">
+        <v>233</v>
+      </c>
+      <c r="G51" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" t="s">
+        <v>233</v>
+      </c>
+      <c r="G52" t="s">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A22:AA44">
     <sortCondition ref="D1"/>
